--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>600.9643110000001</v>
+        <v>1396.910807333333</v>
       </c>
       <c r="H2">
-        <v>1802.892933</v>
+        <v>4190.732422</v>
       </c>
       <c r="I2">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="J2">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>6283.115325184979</v>
+        <v>61057.79146454475</v>
       </c>
       <c r="R2">
-        <v>56548.03792666482</v>
+        <v>549520.1231809027</v>
       </c>
       <c r="S2">
-        <v>0.000929416568427756</v>
+        <v>0.004249560402847671</v>
       </c>
       <c r="T2">
-        <v>0.000929416568427756</v>
+        <v>0.004249560402847671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>600.9643110000001</v>
+        <v>1396.910807333333</v>
       </c>
       <c r="H3">
-        <v>1802.892933</v>
+        <v>4190.732422</v>
       </c>
       <c r="I3">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="J3">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>100618.0930059227</v>
+        <v>233881.6115375675</v>
       </c>
       <c r="R3">
-        <v>905562.8370533044</v>
+        <v>2104934.503838108</v>
       </c>
       <c r="S3">
-        <v>0.01488371896477267</v>
+        <v>0.01627792312012114</v>
       </c>
       <c r="T3">
-        <v>0.01488371896477267</v>
+        <v>0.01627792312012114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>600.9643110000001</v>
+        <v>1396.910807333333</v>
       </c>
       <c r="H4">
-        <v>1802.892933</v>
+        <v>4190.732422</v>
       </c>
       <c r="I4">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="J4">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>136716.7833847479</v>
+        <v>637531.9801214056</v>
       </c>
       <c r="R4">
-        <v>1230451.05046273</v>
+        <v>5737787.821092649</v>
       </c>
       <c r="S4">
-        <v>0.02022354152097188</v>
+        <v>0.04437157966721084</v>
       </c>
       <c r="T4">
-        <v>0.02022354152097188</v>
+        <v>0.04437157966721085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>600.9643110000001</v>
+        <v>1396.910807333333</v>
       </c>
       <c r="H5">
-        <v>1802.892933</v>
+        <v>4190.732422</v>
       </c>
       <c r="I5">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="J5">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>33359.69296686691</v>
+        <v>158756.7587513315</v>
       </c>
       <c r="R5">
-        <v>300237.2367018022</v>
+        <v>1428810.828761983</v>
       </c>
       <c r="S5">
-        <v>0.00493466214710235</v>
+        <v>0.01104930950648379</v>
       </c>
       <c r="T5">
-        <v>0.004934662147102349</v>
+        <v>0.01104930950648379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>600.9643110000001</v>
+        <v>1396.910807333333</v>
       </c>
       <c r="H6">
-        <v>1802.892933</v>
+        <v>4190.732422</v>
       </c>
       <c r="I6">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="J6">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>400113.2279266794</v>
+        <v>1047929.765025805</v>
       </c>
       <c r="R6">
-        <v>3601019.051340114</v>
+        <v>9431367.885232244</v>
       </c>
       <c r="S6">
-        <v>0.05918590444959224</v>
+        <v>0.07293484955159324</v>
       </c>
       <c r="T6">
-        <v>0.05918590444959224</v>
+        <v>0.07293484955159325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>600.9643110000001</v>
+        <v>1396.910807333333</v>
       </c>
       <c r="H7">
-        <v>1802.892933</v>
+        <v>4190.732422</v>
       </c>
       <c r="I7">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="J7">
-        <v>0.1133122708705296</v>
+        <v>0.1709649663271081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>88931.65447535593</v>
+        <v>317271.0580220188</v>
       </c>
       <c r="R7">
-        <v>800384.8902782033</v>
+        <v>2855439.522198169</v>
       </c>
       <c r="S7">
-        <v>0.01315502721966269</v>
+        <v>0.02208174407885144</v>
       </c>
       <c r="T7">
-        <v>0.01315502721966269</v>
+        <v>0.02208174407885145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6166.02124</v>
       </c>
       <c r="I8">
-        <v>0.3875359740734635</v>
+        <v>0.2515487765658242</v>
       </c>
       <c r="J8">
-        <v>0.3875359740734636</v>
+        <v>0.2515487765658243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>21488.69843534967</v>
+        <v>89837.19338926421</v>
       </c>
       <c r="R8">
-        <v>193398.2859181471</v>
+        <v>808534.7405033779</v>
       </c>
       <c r="S8">
-        <v>0.003178670345219804</v>
+        <v>0.006252577608406823</v>
       </c>
       <c r="T8">
-        <v>0.003178670345219805</v>
+        <v>0.006252577608406824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6166.02124</v>
       </c>
       <c r="I9">
-        <v>0.3875359740734635</v>
+        <v>0.2515487765658242</v>
       </c>
       <c r="J9">
-        <v>0.3875359740734636</v>
+        <v>0.2515487765658243</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>344120.9886881369</v>
@@ -1013,10 +1013,10 @@
         <v>3097088.898193232</v>
       </c>
       <c r="S9">
-        <v>0.05090337068118015</v>
+        <v>0.02395047204036307</v>
       </c>
       <c r="T9">
-        <v>0.05090337068118016</v>
+        <v>0.02395047204036307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6166.02124</v>
       </c>
       <c r="I10">
-        <v>0.3875359740734635</v>
+        <v>0.2515487765658242</v>
       </c>
       <c r="J10">
-        <v>0.3875359740734636</v>
+        <v>0.2515487765658243</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>467581.0608520668</v>
+        <v>938030.7151015342</v>
       </c>
       <c r="R10">
-        <v>4208229.547668601</v>
+        <v>8442276.435913807</v>
       </c>
       <c r="S10">
-        <v>0.06916594118478055</v>
+        <v>0.06528598706137438</v>
       </c>
       <c r="T10">
-        <v>0.06916594118478056</v>
+        <v>0.06528598706137441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6166.02124</v>
       </c>
       <c r="I11">
-        <v>0.3875359740734635</v>
+        <v>0.2515487765658242</v>
       </c>
       <c r="J11">
-        <v>0.3875359740734636</v>
+        <v>0.2515487765658243</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>114092.5074520662</v>
+        <v>233586.2679553025</v>
       </c>
       <c r="R11">
-        <v>1026832.567068596</v>
+        <v>2102276.411597723</v>
       </c>
       <c r="S11">
-        <v>0.01687689327209598</v>
+        <v>0.01625736750613111</v>
       </c>
       <c r="T11">
-        <v>0.01687689327209598</v>
+        <v>0.01625736750613111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6166.02124</v>
       </c>
       <c r="I12">
-        <v>0.3875359740734635</v>
+        <v>0.2515487765658242</v>
       </c>
       <c r="J12">
-        <v>0.3875359740734636</v>
+        <v>0.2515487765658243</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>1368415.51522176</v>
+        <v>1541868.231733484</v>
       </c>
       <c r="R12">
-        <v>12315739.63699584</v>
+        <v>13876814.08560136</v>
       </c>
       <c r="S12">
-        <v>0.2024199758426787</v>
+        <v>0.1073124662196169</v>
       </c>
       <c r="T12">
-        <v>0.2024199758426787</v>
+        <v>0.1073124662196169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6166.02124</v>
       </c>
       <c r="I13">
-        <v>0.3875359740734635</v>
+        <v>0.2515487765658242</v>
       </c>
       <c r="J13">
-        <v>0.3875359740734636</v>
+        <v>0.2515487765658243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>304152.5430414373</v>
+        <v>466815.7939006301</v>
       </c>
       <c r="R13">
-        <v>2737372.887372936</v>
+        <v>4201342.145105671</v>
       </c>
       <c r="S13">
-        <v>0.04499112274750831</v>
+        <v>0.03248990612993191</v>
       </c>
       <c r="T13">
-        <v>0.04499112274750831</v>
+        <v>0.03248990612993193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1058.049133333333</v>
+        <v>1804.749186333333</v>
       </c>
       <c r="H14">
-        <v>3174.1474</v>
+        <v>5414.247559</v>
       </c>
       <c r="I14">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="J14">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>11061.96258706842</v>
+        <v>78884.06252315061</v>
       </c>
       <c r="R14">
-        <v>99557.66328361581</v>
+        <v>709956.5627083555</v>
       </c>
       <c r="S14">
-        <v>0.001636317459674619</v>
+        <v>0.005490250801305171</v>
       </c>
       <c r="T14">
-        <v>0.001636317459674619</v>
+        <v>0.005490250801305171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1058.049133333333</v>
+        <v>1804.749186333333</v>
       </c>
       <c r="H15">
-        <v>3174.1474</v>
+        <v>5414.247559</v>
       </c>
       <c r="I15">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="J15">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>177146.769207347</v>
+        <v>302165.0673077169</v>
       </c>
       <c r="R15">
-        <v>1594320.922866122</v>
+        <v>2719485.605769452</v>
       </c>
       <c r="S15">
-        <v>0.02620406181067651</v>
+        <v>0.02103038243530824</v>
       </c>
       <c r="T15">
-        <v>0.02620406181067651</v>
+        <v>0.02103038243530824</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1058.049133333333</v>
+        <v>1804.749186333333</v>
       </c>
       <c r="H16">
-        <v>3174.1474</v>
+        <v>5414.247559</v>
       </c>
       <c r="I16">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="J16">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>240701.604944979</v>
+        <v>823664.1282645834</v>
       </c>
       <c r="R16">
-        <v>2166314.444504811</v>
+        <v>7412977.154381251</v>
       </c>
       <c r="S16">
-        <v>0.03560527669869398</v>
+        <v>0.05732618852995582</v>
       </c>
       <c r="T16">
-        <v>0.03560527669869398</v>
+        <v>0.05732618852995582</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1058.049133333333</v>
+        <v>1804.749186333333</v>
       </c>
       <c r="H17">
-        <v>3174.1474</v>
+        <v>5414.247559</v>
       </c>
       <c r="I17">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="J17">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>58732.59623874674</v>
+        <v>205106.961501955</v>
       </c>
       <c r="R17">
-        <v>528593.3661487207</v>
+        <v>1845962.653517595</v>
       </c>
       <c r="S17">
-        <v>0.00868789529172964</v>
+        <v>0.01427523664122771</v>
       </c>
       <c r="T17">
-        <v>0.008687895291729638</v>
+        <v>0.01427523664122771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1058.049133333333</v>
+        <v>1804.749186333333</v>
       </c>
       <c r="H18">
-        <v>3174.1474</v>
+        <v>5414.247559</v>
       </c>
       <c r="I18">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="J18">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>704433.6016203557</v>
+        <v>1353880.563337577</v>
       </c>
       <c r="R18">
-        <v>6339902.414583202</v>
+        <v>12184925.07003819</v>
       </c>
       <c r="S18">
-        <v>0.1042018531919786</v>
+        <v>0.09422871502788252</v>
       </c>
       <c r="T18">
-        <v>0.1042018531919786</v>
+        <v>0.09422871502788253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1058.049133333333</v>
+        <v>1804.749186333333</v>
       </c>
       <c r="H19">
-        <v>3174.1474</v>
+        <v>5414.247559</v>
       </c>
       <c r="I19">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="J19">
-        <v>0.1994959564089584</v>
+        <v>0.2208794450229546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>156571.7934014717</v>
+        <v>409900.6756955534</v>
       </c>
       <c r="R19">
-        <v>1409146.140613245</v>
+        <v>3689106.08125998</v>
       </c>
       <c r="S19">
-        <v>0.02316055195620513</v>
+        <v>0.02852867158727514</v>
       </c>
       <c r="T19">
-        <v>0.02316055195620513</v>
+        <v>0.02852867158727514</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>556.945231</v>
+        <v>1005.527526666667</v>
       </c>
       <c r="H20">
-        <v>1670.835693</v>
+        <v>3016.58258</v>
       </c>
       <c r="I20">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971915</v>
       </c>
       <c r="J20">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971916</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>5822.893393389526</v>
+        <v>43950.75885501581</v>
       </c>
       <c r="R20">
-        <v>52406.04054050573</v>
+        <v>395556.8296951422</v>
       </c>
       <c r="S20">
-        <v>0.0008613392108707497</v>
+        <v>0.003058928271485825</v>
       </c>
       <c r="T20">
-        <v>0.0008613392108707497</v>
+        <v>0.003058928271485825</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>556.945231</v>
+        <v>1005.527526666667</v>
       </c>
       <c r="H21">
-        <v>1670.835693</v>
+        <v>3016.58258</v>
       </c>
       <c r="I21">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971915</v>
       </c>
       <c r="J21">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971916</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>93248.07817408498</v>
+        <v>168353.1955996004</v>
       </c>
       <c r="R21">
-        <v>839232.7035667647</v>
+        <v>1515178.760396404</v>
       </c>
       <c r="S21">
-        <v>0.01379352508168226</v>
+        <v>0.01171721178497535</v>
       </c>
       <c r="T21">
-        <v>0.01379352508168226</v>
+        <v>0.01171721178497535</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>556.945231</v>
+        <v>1005.527526666667</v>
       </c>
       <c r="H22">
-        <v>1670.835693</v>
+        <v>3016.58258</v>
       </c>
       <c r="I22">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971915</v>
       </c>
       <c r="J22">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971916</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>126702.6329352116</v>
+        <v>458909.7255007559</v>
       </c>
       <c r="R22">
-        <v>1140323.696416904</v>
+        <v>4130187.529506803</v>
       </c>
       <c r="S22">
-        <v>0.01874221945941108</v>
+        <v>0.03193965178223217</v>
       </c>
       <c r="T22">
-        <v>0.01874221945941108</v>
+        <v>0.03193965178223217</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>556.945231</v>
+        <v>1005.527526666667</v>
       </c>
       <c r="H23">
-        <v>1670.835693</v>
+        <v>3016.58258</v>
       </c>
       <c r="I23">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971915</v>
       </c>
       <c r="J23">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971916</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>30916.18181885807</v>
+        <v>114276.6525470447</v>
       </c>
       <c r="R23">
-        <v>278245.6363697226</v>
+        <v>1028489.872923402</v>
       </c>
       <c r="S23">
-        <v>0.00457321091971612</v>
+        <v>0.007953539195991021</v>
       </c>
       <c r="T23">
-        <v>0.004573210919716119</v>
+        <v>0.007953539195991021</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>556.945231</v>
+        <v>1005.527526666667</v>
       </c>
       <c r="H24">
-        <v>1670.835693</v>
+        <v>3016.58258</v>
       </c>
       <c r="I24">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971915</v>
       </c>
       <c r="J24">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971916</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>370805.9697970652</v>
+        <v>754323.1960230211</v>
       </c>
       <c r="R24">
-        <v>3337253.728173586</v>
+        <v>6788908.76420719</v>
       </c>
       <c r="S24">
-        <v>0.05485069016955663</v>
+        <v>0.05250012992412832</v>
       </c>
       <c r="T24">
-        <v>0.05485069016955663</v>
+        <v>0.05250012992412833</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>556.945231</v>
+        <v>1005.527526666667</v>
       </c>
       <c r="H25">
-        <v>1670.835693</v>
+        <v>3016.58258</v>
       </c>
       <c r="I25">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971915</v>
       </c>
       <c r="J25">
-        <v>0.1050124403728887</v>
+        <v>0.1230643923971916</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>82417.6410119457</v>
+        <v>228378.7773571651</v>
       </c>
       <c r="R25">
-        <v>741758.7691075113</v>
+        <v>2055408.996214486</v>
       </c>
       <c r="S25">
-        <v>0.0121914555316519</v>
+        <v>0.01589493143837887</v>
       </c>
       <c r="T25">
-        <v>0.0121914555316519</v>
+        <v>0.01589493143837887</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>441.9456483333333</v>
+        <v>420.9800316666667</v>
       </c>
       <c r="H26">
-        <v>1325.836945</v>
+        <v>1262.940095</v>
       </c>
       <c r="I26">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="J26">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>4620.56635496609</v>
+        <v>18400.68159634992</v>
       </c>
       <c r="R26">
-        <v>41585.09719469481</v>
+        <v>165606.1343671493</v>
       </c>
       <c r="S26">
-        <v>0.0006834875222824112</v>
+        <v>0.001280668789709875</v>
       </c>
       <c r="T26">
-        <v>0.0006834875222824112</v>
+        <v>0.001280668789709875</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>441.9456483333333</v>
+        <v>420.9800316666667</v>
       </c>
       <c r="H27">
-        <v>1325.836945</v>
+        <v>1262.940095</v>
       </c>
       <c r="I27">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="J27">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>73993.9585989261</v>
+        <v>70483.73290152493</v>
       </c>
       <c r="R27">
-        <v>665945.6273903348</v>
+        <v>634353.5961137243</v>
       </c>
       <c r="S27">
-        <v>0.01094540009630886</v>
+        <v>0.004905596373513461</v>
       </c>
       <c r="T27">
-        <v>0.01094540009630886</v>
+        <v>0.004905596373513462</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>441.9456483333333</v>
+        <v>420.9800316666667</v>
       </c>
       <c r="H28">
-        <v>1325.836945</v>
+        <v>1262.940095</v>
       </c>
       <c r="I28">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="J28">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>100540.7249067412</v>
+        <v>192129.8280255761</v>
       </c>
       <c r="R28">
-        <v>904866.5241606709</v>
+        <v>1729168.452230185</v>
       </c>
       <c r="S28">
-        <v>0.01487227445205478</v>
+        <v>0.01337204130381181</v>
       </c>
       <c r="T28">
-        <v>0.01487227445205478</v>
+        <v>0.01337204130381182</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>441.9456483333333</v>
+        <v>420.9800316666667</v>
       </c>
       <c r="H29">
-        <v>1325.836945</v>
+        <v>1262.940095</v>
       </c>
       <c r="I29">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="J29">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>24532.52359014533</v>
+        <v>47843.73130738116</v>
       </c>
       <c r="R29">
-        <v>220792.712311308</v>
+        <v>430593.5817664304</v>
       </c>
       <c r="S29">
-        <v>0.003628921754568395</v>
+        <v>0.003329875208578286</v>
       </c>
       <c r="T29">
-        <v>0.003628921754568394</v>
+        <v>0.003329875208578286</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>441.9456483333333</v>
+        <v>420.9800316666667</v>
       </c>
       <c r="H30">
-        <v>1325.836945</v>
+        <v>1262.940095</v>
       </c>
       <c r="I30">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="J30">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>294240.9335898136</v>
+        <v>315809.3582990915</v>
       </c>
       <c r="R30">
-        <v>2648168.402308322</v>
+        <v>2842284.224691824</v>
       </c>
       <c r="S30">
-        <v>0.0435249688465606</v>
+        <v>0.02198001125959262</v>
       </c>
       <c r="T30">
-        <v>0.0435249688465606</v>
+        <v>0.02198001125959262</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>441.9456483333333</v>
+        <v>420.9800316666667</v>
       </c>
       <c r="H31">
-        <v>1325.836945</v>
+        <v>1262.940095</v>
       </c>
       <c r="I31">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="J31">
-        <v>0.08332918294377463</v>
+        <v>0.05152285783776765</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>65399.81988126272</v>
+        <v>95614.39381229931</v>
       </c>
       <c r="R31">
-        <v>588598.3789313645</v>
+        <v>860529.5443106939</v>
       </c>
       <c r="S31">
-        <v>0.009674130271999586</v>
+        <v>0.00665466490256159</v>
       </c>
       <c r="T31">
-        <v>0.009674130271999586</v>
+        <v>0.006654664902561591</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>590.3671876666666</v>
+        <v>1487.235066666667</v>
       </c>
       <c r="H32">
-        <v>1771.101563</v>
+        <v>4461.7052</v>
       </c>
       <c r="I32">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491538</v>
       </c>
       <c r="J32">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491539</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>6172.321810828446</v>
+        <v>65005.7885461137</v>
       </c>
       <c r="R32">
-        <v>55550.89629745601</v>
+        <v>585052.0969150233</v>
       </c>
       <c r="S32">
-        <v>0.0009130276717438853</v>
+        <v>0.004524336998364328</v>
       </c>
       <c r="T32">
-        <v>0.0009130276717438853</v>
+        <v>0.004524336998364328</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>590.3671876666666</v>
+        <v>1487.235066666667</v>
       </c>
       <c r="H33">
-        <v>1771.101563</v>
+        <v>4461.7052</v>
       </c>
       <c r="I33">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491538</v>
       </c>
       <c r="J33">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491539</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>98843.84065577181</v>
+        <v>249004.397633084</v>
       </c>
       <c r="R33">
-        <v>889594.5659019462</v>
+        <v>2241039.578697756</v>
       </c>
       <c r="S33">
-        <v>0.01462126643199927</v>
+        <v>0.01733045370517448</v>
       </c>
       <c r="T33">
-        <v>0.01462126643199927</v>
+        <v>0.01733045370517448</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>590.3671876666666</v>
+        <v>1487.235066666667</v>
       </c>
       <c r="H34">
-        <v>1771.101563</v>
+        <v>4461.7052</v>
       </c>
       <c r="I34">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491538</v>
       </c>
       <c r="J34">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491539</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>134305.9836271815</v>
+        <v>678754.8009367924</v>
       </c>
       <c r="R34">
-        <v>1208753.852644634</v>
+        <v>6108793.208431131</v>
       </c>
       <c r="S34">
-        <v>0.01986692905695065</v>
+        <v>0.04724064621594896</v>
       </c>
       <c r="T34">
-        <v>0.01986692905695065</v>
+        <v>0.04724064621594896</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>590.3671876666666</v>
+        <v>1487.235066666667</v>
       </c>
       <c r="H35">
-        <v>1771.101563</v>
+        <v>4461.7052</v>
       </c>
       <c r="I35">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491538</v>
       </c>
       <c r="J35">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491539</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>32771.4437576189</v>
+        <v>169021.9715144489</v>
       </c>
       <c r="R35">
-        <v>294942.99381857</v>
+        <v>1521197.74363004</v>
       </c>
       <c r="S35">
-        <v>0.004847646624842533</v>
+        <v>0.01176375791083331</v>
       </c>
       <c r="T35">
-        <v>0.004847646624842532</v>
+        <v>0.01176375791083331</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>590.3671876666666</v>
+        <v>1487.235066666667</v>
       </c>
       <c r="H36">
-        <v>1771.101563</v>
+        <v>4461.7052</v>
       </c>
       <c r="I36">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491538</v>
       </c>
       <c r="J36">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491539</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>393057.8185687064</v>
+        <v>1115688.908531897</v>
       </c>
       <c r="R36">
-        <v>3537520.367118357</v>
+        <v>10041200.17678707</v>
       </c>
       <c r="S36">
-        <v>0.05814224791697126</v>
+        <v>0.07765081726460112</v>
       </c>
       <c r="T36">
-        <v>0.05814224791697126</v>
+        <v>0.07765081726460112</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>590.3671876666666</v>
+        <v>1487.235066666667</v>
       </c>
       <c r="H37">
-        <v>1771.101563</v>
+        <v>4461.7052</v>
       </c>
       <c r="I37">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491538</v>
       </c>
       <c r="J37">
-        <v>0.1113141753303851</v>
+        <v>0.1820195618491539</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>87363.47531153077</v>
+        <v>337785.8061171015</v>
       </c>
       <c r="R37">
-        <v>786271.2778037769</v>
+        <v>3040072.255053914</v>
       </c>
       <c r="S37">
-        <v>0.01292305762787752</v>
+        <v>0.02350954975423165</v>
       </c>
       <c r="T37">
-        <v>0.01292305762787752</v>
+        <v>0.02350954975423165</v>
       </c>
     </row>
   </sheetData>
